--- a/Tiempos.xlsx
+++ b/Tiempos.xlsx
@@ -235,10 +235,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,73 +556,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E202"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -633,542 +633,542 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
         <v>7</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>8</v>
       </c>
-      <c r="C30" s="3">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
         <v>10</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
         <v>7</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="3">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>10</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>7</v>
       </c>
-      <c r="D42" s="3">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>30</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>27</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>35</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="3">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3">
-        <v>4</v>
-      </c>
-      <c r="D48" s="3">
-        <v>6</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>8</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>7</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>10</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>7</v>
       </c>
-      <c r="C54" s="3">
-        <v>5</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
         <v>8</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>2</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D57" s="3">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="3">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2">
         <v>2</v>
       </c>
-      <c r="D60" s="3">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="2">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1181,542 +1181,542 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="3">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3">
-        <v>4</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="2">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2">
         <v>8</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="3">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2">
         <v>2</v>
       </c>
-      <c r="D68" s="3">
-        <v>4</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="D68" s="2">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="3">
-        <v>5</v>
-      </c>
-      <c r="C71" s="3">
-        <v>4</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="B71" s="2">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2">
         <v>7</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="3">
-        <v>4</v>
-      </c>
-      <c r="C74" s="3">
-        <v>3</v>
-      </c>
-      <c r="D74" s="3">
-        <v>6</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="B74" s="2">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>7</v>
       </c>
-      <c r="C77" s="3">
-        <v>5</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2">
         <v>9</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>7</v>
       </c>
-      <c r="C80" s="3">
-        <v>6</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80" s="2">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2">
         <v>8</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="3">
-        <v>4</v>
-      </c>
-      <c r="C83" s="3">
-        <v>3</v>
-      </c>
-      <c r="D83" s="3">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="B83" s="2">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5</v>
+      </c>
+      <c r="E83" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="3">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3">
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2">
         <v>2</v>
       </c>
-      <c r="D86" s="3">
-        <v>4</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="3" t="s">
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>9</v>
       </c>
-      <c r="C89" s="3">
-        <v>6</v>
-      </c>
-      <c r="D89" s="3">
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2">
         <v>11</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>90</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>65</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>80</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="3">
-        <v>6</v>
-      </c>
-      <c r="C95" s="3">
-        <v>5</v>
-      </c>
-      <c r="D95" s="3">
+      <c r="B95" s="2">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2">
         <v>7</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>7</v>
       </c>
-      <c r="C98" s="3">
-        <v>6</v>
-      </c>
-      <c r="D98" s="3">
+      <c r="C98" s="2">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2">
         <v>9</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>8</v>
       </c>
-      <c r="C101" s="3">
-        <v>6</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="C101" s="2">
+        <v>6</v>
+      </c>
+      <c r="D101" s="2">
         <v>9</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="3">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="B104" s="2">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2">
         <v>2</v>
       </c>
-      <c r="D104" s="3">
-        <v>5</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="D104" s="2">
+        <v>5</v>
+      </c>
+      <c r="E104" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="3" t="s">
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>2</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <v>1</v>
       </c>
-      <c r="D107" s="3">
-        <v>4</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="D107" s="2">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1729,542 +1729,542 @@
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="3">
-        <v>5</v>
-      </c>
-      <c r="C113" s="3">
-        <v>3</v>
-      </c>
-      <c r="D113" s="3">
+      <c r="B113" s="2">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2">
         <v>7</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="3">
-        <v>4</v>
-      </c>
-      <c r="C116" s="3">
-        <v>3</v>
-      </c>
-      <c r="D116" s="3">
-        <v>5</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="B116" s="2">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2">
+        <v>5</v>
+      </c>
+      <c r="E116" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="3">
-        <v>6</v>
-      </c>
-      <c r="C119" s="3">
-        <v>5</v>
-      </c>
-      <c r="D119" s="3">
+      <c r="B119" s="2">
+        <v>6</v>
+      </c>
+      <c r="C119" s="2">
+        <v>5</v>
+      </c>
+      <c r="D119" s="2">
         <v>8</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="2">
         <v>6.166666666666667</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="3">
-        <v>3</v>
-      </c>
-      <c r="C122" s="3">
+      <c r="B122" s="2">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2">
         <v>2</v>
       </c>
-      <c r="D122" s="3">
-        <v>5</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D122" s="2">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2">
         <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="B124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>8</v>
       </c>
-      <c r="C125" s="3">
-        <v>6</v>
-      </c>
-      <c r="D125" s="3">
+      <c r="C125" s="2">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2">
         <v>10</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>7</v>
       </c>
-      <c r="C128" s="3">
-        <v>6</v>
-      </c>
-      <c r="D128" s="3">
+      <c r="C128" s="2">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2">
         <v>8</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="B130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="3">
-        <v>3</v>
-      </c>
-      <c r="C131" s="3">
+      <c r="B131" s="2">
+        <v>3</v>
+      </c>
+      <c r="C131" s="2">
         <v>2</v>
       </c>
-      <c r="D131" s="3">
-        <v>4</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D131" s="2">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="3" t="s">
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="3">
-        <v>4</v>
-      </c>
-      <c r="C134" s="3">
-        <v>3</v>
-      </c>
-      <c r="D134" s="3">
-        <v>5</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="B134" s="2">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="3" t="s">
+      <c r="B136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>10</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>7</v>
       </c>
-      <c r="D137" s="3">
-        <v>12</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="2">
+        <v>12</v>
+      </c>
+      <c r="E137" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="B139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>75</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>65</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="2">
         <v>80</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="2">
         <v>74</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="3" t="s">
+      <c r="B142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="3">
-        <v>5</v>
-      </c>
-      <c r="C143" s="3">
-        <v>4</v>
-      </c>
-      <c r="D143" s="3">
-        <v>6</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="B143" s="2">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2">
+        <v>6</v>
+      </c>
+      <c r="E143" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="B145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>8</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="2">
         <v>7</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="2">
         <v>10</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="B148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="3">
-        <v>6</v>
-      </c>
-      <c r="C149" s="3">
-        <v>4</v>
-      </c>
-      <c r="D149" s="3">
+      <c r="B149" s="2">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2">
         <v>7</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="3" t="s">
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>2</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="2">
         <v>1</v>
       </c>
-      <c r="D152" s="3">
-        <v>4</v>
-      </c>
-      <c r="E152" s="3">
+      <c r="D152" s="2">
+        <v>4</v>
+      </c>
+      <c r="E152" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="3" t="s">
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="3">
-        <v>3</v>
-      </c>
-      <c r="C155" s="3">
+      <c r="B155" s="2">
+        <v>3</v>
+      </c>
+      <c r="C155" s="2">
         <v>2</v>
       </c>
-      <c r="D155" s="3">
-        <v>5</v>
-      </c>
-      <c r="E155" s="3">
+      <c r="D155" s="2">
+        <v>5</v>
+      </c>
+      <c r="E155" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2277,547 +2277,595 @@
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" s="3" t="s">
+      <c r="B159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="3">
-        <v>6</v>
-      </c>
-      <c r="C160" s="3">
-        <v>4</v>
-      </c>
-      <c r="D160" s="3">
+      <c r="B160" s="2">
+        <v>6</v>
+      </c>
+      <c r="C160" s="2">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2">
         <v>8</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="3" t="s">
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="3">
-        <v>4</v>
-      </c>
-      <c r="C163" s="3">
-        <v>3</v>
-      </c>
-      <c r="D163" s="3">
-        <v>5</v>
-      </c>
-      <c r="E163" s="3">
+      <c r="B163" s="2">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3</v>
+      </c>
+      <c r="D163" s="2">
+        <v>5</v>
+      </c>
+      <c r="E163" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="3" t="s">
+      <c r="B165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="3">
-        <v>6</v>
-      </c>
-      <c r="C166" s="3">
-        <v>5</v>
-      </c>
-      <c r="D166" s="3">
+      <c r="B166" s="2">
+        <v>6</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
+      <c r="D166" s="2">
         <v>8</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="3" t="s">
+      <c r="B168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="3">
-        <v>3</v>
-      </c>
-      <c r="C169" s="3">
+      <c r="B169" s="2">
+        <v>3</v>
+      </c>
+      <c r="C169" s="2">
         <v>2</v>
       </c>
-      <c r="D169" s="3">
-        <v>5</v>
-      </c>
-      <c r="E169" s="3">
+      <c r="D169" s="2">
+        <v>5</v>
+      </c>
+      <c r="E169" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="3" t="s">
+      <c r="B171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>7</v>
       </c>
-      <c r="C172" s="3">
-        <v>5</v>
-      </c>
-      <c r="D172" s="3">
+      <c r="C172" s="2">
+        <v>5</v>
+      </c>
+      <c r="D172" s="2">
         <v>9</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" s="3" t="s">
+      <c r="B174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="3">
-        <v>6</v>
-      </c>
-      <c r="C175" s="3">
-        <v>5</v>
-      </c>
-      <c r="D175" s="3">
+      <c r="B175" s="2">
+        <v>6</v>
+      </c>
+      <c r="C175" s="2">
+        <v>5</v>
+      </c>
+      <c r="D175" s="2">
         <v>7</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" s="3" t="s">
+      <c r="B177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="3">
-        <v>3</v>
-      </c>
-      <c r="C178" s="3">
+      <c r="B178" s="2">
+        <v>3</v>
+      </c>
+      <c r="C178" s="2">
         <v>2</v>
       </c>
-      <c r="D178" s="3">
-        <v>4</v>
-      </c>
-      <c r="E178" s="3">
+      <c r="D178" s="2">
+        <v>4</v>
+      </c>
+      <c r="E178" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180" s="3" t="s">
+      <c r="B180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="3">
-        <v>4</v>
-      </c>
-      <c r="C181" s="3">
-        <v>3</v>
-      </c>
-      <c r="D181" s="3">
-        <v>5</v>
-      </c>
-      <c r="E181" s="3">
+      <c r="B181" s="2">
+        <v>4</v>
+      </c>
+      <c r="C181" s="2">
+        <v>3</v>
+      </c>
+      <c r="D181" s="2">
+        <v>5</v>
+      </c>
+      <c r="E181" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" s="3" t="s">
+      <c r="B183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="3">
-        <v>12</v>
-      </c>
-      <c r="C184" s="3">
+      <c r="B184" s="2">
+        <v>12</v>
+      </c>
+      <c r="C184" s="2">
         <v>9</v>
       </c>
-      <c r="D184" s="3">
-        <v>14</v>
-      </c>
-      <c r="E184" s="3">
+      <c r="D184" s="2">
+        <v>14</v>
+      </c>
+      <c r="E184" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" s="3" t="s">
+      <c r="B186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>80</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="2">
         <v>65</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="2">
         <v>80</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="3" t="s">
+      <c r="B189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="3">
-        <v>5</v>
-      </c>
-      <c r="C190" s="3">
-        <v>4</v>
-      </c>
-      <c r="D190" s="3">
-        <v>6</v>
-      </c>
-      <c r="E190" s="3">
+      <c r="B190" s="2">
+        <v>5</v>
+      </c>
+      <c r="C190" s="2">
+        <v>4</v>
+      </c>
+      <c r="D190" s="2">
+        <v>6</v>
+      </c>
+      <c r="E190" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" s="3" t="s">
+      <c r="B192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="3">
-        <v>6</v>
-      </c>
-      <c r="C193" s="3">
-        <v>5</v>
-      </c>
-      <c r="D193" s="3">
+      <c r="B193" s="2">
+        <v>6</v>
+      </c>
+      <c r="C193" s="2">
+        <v>5</v>
+      </c>
+      <c r="D193" s="2">
         <v>8</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E195" s="3" t="s">
+      <c r="B195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>7</v>
       </c>
-      <c r="C196" s="3">
-        <v>5</v>
-      </c>
-      <c r="D196" s="3">
+      <c r="C196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D196" s="2">
         <v>8</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E198" s="3" t="s">
+      <c r="B198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>2</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="2">
         <v>1</v>
       </c>
-      <c r="D199" s="3">
-        <v>4</v>
-      </c>
-      <c r="E199" s="3">
+      <c r="D199" s="2">
+        <v>4</v>
+      </c>
+      <c r="E199" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E201" s="3" t="s">
+      <c r="B201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="3">
-        <v>3</v>
-      </c>
-      <c r="C202" s="3">
+      <c r="B202" s="2">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2">
         <v>2</v>
       </c>
-      <c r="D202" s="3">
-        <v>5</v>
-      </c>
-      <c r="E202" s="3">
+      <c r="D202" s="2">
+        <v>5</v>
+      </c>
+      <c r="E202" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B147:E147"/>
     <mergeCell ref="B197:E197"/>
     <mergeCell ref="B200:E200"/>
     <mergeCell ref="B62:E62"/>
@@ -2834,54 +2882,6 @@
     <mergeCell ref="B176:E176"/>
     <mergeCell ref="B179:E179"/>
     <mergeCell ref="B150:E150"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
